--- a/xlsx/哥伦比亚高原_intext.xlsx
+++ b/xlsx/哥伦比亚高原_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
   <si>
     <t>哥伦比亚高原</t>
   </si>
@@ -29,7 +29,7 @@
     <t>华盛顿州</t>
   </si>
   <si>
-    <t>政策_政策_美國_哥伦比亚高原</t>
+    <t>政策_政策_美国_哥伦比亚高原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E7%88%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>鮑爾縣</t>
+    <t>鲍尔县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%96%E8%82%96%E5%B0%BC%E5%8E%BF_(%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E)</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%81%94%E5%80%AB_(%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科達倫 (愛達荷州)</t>
+    <t>科达伦 (爱达荷州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E7%A6%8F%E5%B0%94%E6%96%AF_(%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E)</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91_(%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫斯科 (愛達荷州)</t>
+    <t>莫斯科 (爱达荷州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%8D%A1%E7%89%B9%E6%B4%9B_(%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E)</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧林匹亞 (華盛頓州)</t>
+    <t>奥林匹亚 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>華盛頓州州旗</t>
+    <t>华盛顿州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%B7%9E%E5%BE%BD</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>華盛頓州地方政府</t>
+    <t>华盛顿州地方政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%90%89%E7%89%B9%E6%B5%B7%E6%B9%BE</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%83%A1%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖胡安群島</t>
+    <t>圣胡安群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8D%A1%E8%AB%BE%E6%A0%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>奧卡諾根縣</t>
+    <t>奥卡诺根县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E6%B2%B3%E5%B3%A1%E8%B0%B7</t>
@@ -479,13 +479,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
   </si>
   <si>
-    <t>哥倫比亞河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%A7%91%E9%A9%AC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>溫哥華 (華盛頓州)</t>
+    <t>温哥华 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E7%BB%B4%E5%B0%A4_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BC%97%E9%87%8C%E7%89%B9_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃弗里特 (華盛頓州)</t>
+    <t>埃弗里特 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%9F%BA%E9%A9%AC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -551,13 +548,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B8%83%E9%87%8C%E5%A5%87%E5%B3%B6_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>班布里奇島 (華盛頓州)</t>
+    <t>班布里奇岛 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E7%88%BE%E6%A0%BC%E6%9C%97%E5%BE%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴特爾格朗德 (華盛頓州)</t>
+    <t>巴特尔格朗德 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%81%B5%E5%8E%84%E5%A7%86_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -569,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%B0%BC%E6%B9%96_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>邦尼湖 (華盛頓州)</t>
+    <t>邦尼湖 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%96%A9%E7%88%BE_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴薩爾 (華盛頓州)</t>
+    <t>巴萨尔 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%BB%98%E9%A1%BF</t>
@@ -605,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E5%B0%BC_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>切尼 (華盛頓州)</t>
+    <t>切尼 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%9F%83%E5%8B%92%E5%A7%86_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克利埃勒姆 (華盛頓州)</t>
+    <t>克利埃勒姆 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B8%A9%E9%A1%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%9F%8B%E7%B4%8D%E5%A5%87_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>東韋納奇 (華盛頓州)</t>
+    <t>东韦纳奇 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%E5%85%B9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -659,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E7%B6%AD%E5%B0%A4_(%E8%8F%AF%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭德維尤 (華盛顿州)</t>
+    <t>格兰德维尤 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A5%8E%E5%8E%84%E5%A7%86_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>霍奎厄姆 (華盛頓州)</t>
+    <t>霍奎厄姆 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%91%9F%E9%98%94</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%B4%A2_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>凱爾索 (華盛頓州)</t>
+    <t>凯尔索 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E8%8E%AB%E5%B0%94_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -713,13 +710,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%9E%97%E5%85%AC%E5%9C%92%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>湖林公園市 (華盛頓州)</t>
+    <t>湖林公园市 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%B8%9D%E6%96%87%E6%96%AF%E6%B9%96_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>史帝文斯湖 (華盛頓州)</t>
+    <t>史帝文斯湖 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E5%85%8B%E4%BC%8D%E5%BE%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -731,19 +728,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%87%8C_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘭里 (華盛頓州)</t>
+    <t>兰里 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%99%AF%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長景市 (華盛頓州)</t>
+    <t>长景市 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%81_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林丁 (華盛頓州)</t>
+    <t>林丁 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%BC%8D%E5%BE%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -755,13 +752,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%B8%83%E9%A0%93_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥布頓 (華盛頓州)</t>
+    <t>麦布顿 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%93%E6%A8%B9%E8%B0%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>楓樹谷 (華盛頓州)</t>
+    <t>枫树谷 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E7%91%9F%E5%B3%B6_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默瑟島 (華盛頓州)</t>
+    <t>默瑟岛 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E5%85%8B%E9%87%8C%E5%85%8B_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%E6%B9%96%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩西湖市 (華盛頓州)</t>
+    <t>摩西湖市 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%86%9C%E5%B1%B1_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E6%B8%AF%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橡港市 (華盛頓州)</t>
+    <t>橡港市 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E7%A7%91_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -845,13 +842,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E6%A3%AE%E6%B8%AF_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>湯森港 (華盛頓州)</t>
+    <t>汤森港 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%91%9F_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普羅瑟 (華盛頓州)</t>
+    <t>普罗瑟 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%B0%94%E6%9B%BC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -893,25 +890,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%BE%B7%E7%BE%85-%E4%BC%8D%E5%88%A9_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>世德羅-伍利 (華盛頓州)</t>
+    <t>世德罗-伍利 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>細拉 (華盛頓州)</t>
+    <t>细拉 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E7%88%BE%E9%A0%93_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>雪爾頓 (華盛頓州)</t>
+    <t>雪尔顿 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B8%E7%B7%9A%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>岸線市 (華盛頓州)</t>
+    <t>岸线市 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%A2%E5%9D%8E%E8%B0%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -923,19 +920,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%B0%BC%E8%B3%BD%E5%BE%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>桑尼賽德 (華盛頓州)</t>
+    <t>桑尼赛德 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%9C%AC%E5%B0%BC%E8%A8%B1_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>塔本尼許 (華盛頓州)</t>
+    <t>塔本尼许 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%8B%E7%B6%AD%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>塔克維拉 (華盛頓州)</t>
+    <t>塔克维拉 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A7%86%E6%B2%83%E7%89%B9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%9F%8E_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>大學城 (華盛頓州)</t>
+    <t>大学城 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%8B%89%E7%93%A6%E6%8B%89_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -983,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E4%B8%81%E7%B6%AD%E7%88%BE_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伍丁維爾 (華盛頓州)</t>
+    <t>伍丁维尔 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>齊拉 (華盛頓州)</t>
+    <t>齐拉 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%A0%93%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>本頓縣 (華盛頓州)</t>
+    <t>本顿县 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%85%B0%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫比亞縣 (華盛頓州)</t>
+    <t>哥伦比亚县 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%88%A9%E8%8C%A8%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>道格拉斯縣 (華盛頓州)</t>
+    <t>道格拉斯县 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E9%87%8C%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富蘭克林縣 (華盛頓州)</t>
+    <t>富兰克林县 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -1067,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E7%89%B9%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭特縣 (華盛頓州)</t>
+    <t>格兰特县 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E6%96%AF%E6%B8%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑佛遜縣 (華盛頓州)</t>
+    <t>杰佛逊县 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -1097,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%B2%99%E6%99%AE%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>基沙普縣 (華盛頓州)</t>
+    <t>基沙普县 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%92%82%E5%A1%94%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -3815,7 +3812,7 @@
         <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3841,10 +3838,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3870,10 +3867,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3899,10 +3896,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3928,10 +3925,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3957,10 +3954,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3986,10 +3983,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4015,10 +4012,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4044,10 +4041,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4073,10 +4070,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4102,10 +4099,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4131,10 +4128,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4160,10 +4157,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4189,10 +4186,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4218,10 +4215,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4247,10 +4244,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4276,10 +4273,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4305,10 +4302,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4334,10 +4331,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4363,10 +4360,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4392,10 +4389,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4421,10 +4418,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4450,10 +4447,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4479,10 +4476,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4508,10 +4505,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4537,10 +4534,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4566,10 +4563,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4595,10 +4592,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4624,10 +4621,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4653,10 +4650,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4682,10 +4679,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4711,10 +4708,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4740,10 +4737,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4769,10 +4766,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4798,10 +4795,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4827,10 +4824,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4856,10 +4853,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4885,10 +4882,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4914,10 +4911,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4943,10 +4940,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4972,10 +4969,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5001,10 +4998,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5030,10 +5027,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5059,10 +5056,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5088,10 +5085,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5117,10 +5114,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5146,10 +5143,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5175,10 +5172,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5204,10 +5201,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5233,10 +5230,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5262,10 +5259,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5291,10 +5288,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5320,10 +5317,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5349,10 +5346,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5378,10 +5375,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5407,10 +5404,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5436,10 +5433,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5465,10 +5462,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5523,10 +5520,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5552,10 +5549,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5581,10 +5578,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5610,10 +5607,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5639,10 +5636,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5668,10 +5665,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5697,10 +5694,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5726,10 +5723,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5755,10 +5752,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5813,10 +5810,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5842,10 +5839,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5871,10 +5868,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5900,10 +5897,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5929,10 +5926,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5958,10 +5955,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5987,10 +5984,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6016,10 +6013,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6045,10 +6042,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6074,10 +6071,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6103,10 +6100,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6132,10 +6129,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6161,10 +6158,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6190,10 +6187,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6219,10 +6216,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6248,10 +6245,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6277,10 +6274,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6306,10 +6303,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6335,10 +6332,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6364,10 +6361,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6393,10 +6390,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6422,10 +6419,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6451,10 +6448,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -6480,10 +6477,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6509,10 +6506,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6538,10 +6535,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -6567,10 +6564,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6596,10 +6593,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6625,10 +6622,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6654,10 +6651,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6683,10 +6680,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6712,10 +6709,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6741,10 +6738,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6770,10 +6767,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6799,10 +6796,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6828,10 +6825,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>4</v>
@@ -6857,10 +6854,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" t="s">
         <v>359</v>
-      </c>
-      <c r="F183" t="s">
-        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6886,10 +6883,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>360</v>
+      </c>
+      <c r="F184" t="s">
         <v>361</v>
-      </c>
-      <c r="F184" t="s">
-        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6915,10 +6912,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>362</v>
+      </c>
+      <c r="F185" t="s">
         <v>363</v>
-      </c>
-      <c r="F185" t="s">
-        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6944,10 +6941,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" t="s">
         <v>365</v>
-      </c>
-      <c r="F186" t="s">
-        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -6973,10 +6970,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>366</v>
+      </c>
+      <c r="F187" t="s">
         <v>367</v>
-      </c>
-      <c r="F187" t="s">
-        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7002,10 +6999,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>368</v>
+      </c>
+      <c r="F188" t="s">
         <v>369</v>
-      </c>
-      <c r="F188" t="s">
-        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7031,10 +7028,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>370</v>
+      </c>
+      <c r="F189" t="s">
         <v>371</v>
-      </c>
-      <c r="F189" t="s">
-        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7060,10 +7057,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>372</v>
+      </c>
+      <c r="F190" t="s">
         <v>373</v>
-      </c>
-      <c r="F190" t="s">
-        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7089,10 +7086,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>374</v>
+      </c>
+      <c r="F191" t="s">
         <v>375</v>
-      </c>
-      <c r="F191" t="s">
-        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7118,10 +7115,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>376</v>
+      </c>
+      <c r="F192" t="s">
         <v>377</v>
-      </c>
-      <c r="F192" t="s">
-        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7147,10 +7144,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" t="s">
         <v>379</v>
-      </c>
-      <c r="F193" t="s">
-        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7176,10 +7173,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>380</v>
+      </c>
+      <c r="F194" t="s">
         <v>381</v>
-      </c>
-      <c r="F194" t="s">
-        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7205,10 +7202,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>382</v>
+      </c>
+      <c r="F195" t="s">
         <v>383</v>
-      </c>
-      <c r="F195" t="s">
-        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7234,10 +7231,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>384</v>
+      </c>
+      <c r="F196" t="s">
         <v>385</v>
-      </c>
-      <c r="F196" t="s">
-        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7263,10 +7260,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>386</v>
+      </c>
+      <c r="F197" t="s">
         <v>387</v>
-      </c>
-      <c r="F197" t="s">
-        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7292,10 +7289,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>388</v>
+      </c>
+      <c r="F198" t="s">
         <v>389</v>
-      </c>
-      <c r="F198" t="s">
-        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7321,10 +7318,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199" t="s">
         <v>391</v>
-      </c>
-      <c r="F199" t="s">
-        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7350,10 +7347,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>392</v>
+      </c>
+      <c r="F200" t="s">
         <v>393</v>
-      </c>
-      <c r="F200" t="s">
-        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7379,10 +7376,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201" t="s">
         <v>395</v>
-      </c>
-      <c r="F201" t="s">
-        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7408,10 +7405,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>396</v>
+      </c>
+      <c r="F202" t="s">
         <v>397</v>
-      </c>
-      <c r="F202" t="s">
-        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
